--- a/data/TWTR.xlsx
+++ b/data/TWTR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1851"/>
+  <dimension ref="A1:G1868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43025,6 +43025,397 @@
         <v>4807594</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>66.959999</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>70.199997</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>70.199997</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>15653900</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>69.209999</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>69.900002</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>66.720001</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>66.720001</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>15835600</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>67.110001</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>67.110001</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>65.769997</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>66.230003</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>66.230003</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>20666700</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>66.889999</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>66.889999</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>64.349998</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>65.209999</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>65.209999</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>24123800</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>65.150002</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>65.629997</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>64.110001</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>64.269997</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>64.269997</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>17788600</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>64.949997</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>64.949997</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>62.049999</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>62.060001</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>62.060001</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>15475500</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>60.200001</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>62.009998</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>61.200001</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>61.200001</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>19197200</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>61.869999</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>59.279999</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>61.259998</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>61.259998</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>15524100</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>64.959999</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>61.709999</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>62.939999</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>62.939999</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>22034500</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>62.299999</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>64.099998</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>61.900002</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>62.990002</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>62.990002</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>12533300</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>64.980003</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>63.27</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>63.630001</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>63.630001</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>14479800</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>66.360001</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>63.639999</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>63.830002</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>63.830002</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>15252600</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>64.139999</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>64.339996</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>61.810001</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>64.239998</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>64.239998</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>15502100</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>64.66999800000001</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>67.650002</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>64.300003</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>15587900</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>66.639999</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>69.970001</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>66.08000199999999</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>68.989998</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>68.989998</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>23964600</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>69.910004</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>71.449997</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>69.279999</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>71.220001</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>71.220001</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>16835600</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>70.349998</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>71.31680299999999</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>69.910004</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>70.599998</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>70.599998</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>3765720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
